--- a/medicine/Psychotrope/Viticulture_en_Hongrie/Viticulture_en_Hongrie.xlsx
+++ b/medicine/Psychotrope/Viticulture_en_Hongrie/Viticulture_en_Hongrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  viticulture en Hongrie date de l'Antiquité. Ce sont les Romains qui ont apporté la consommation de vin sur le territoire de l'actuelle Hongrie, incitant les Celtes à cultiver la vigne. 
 La Hongrie est surtout connue pour son célèbre vin, le Tokaji. Ce vin blanc liquoreux efface par son prestige international les autres productions. La qualité a connu une sérieuse baisse de durant toute la période communiste, mais les investissements étrangers depuis la chute du rideau de fer hissent la production vers une qualité reconnue.
@@ -514,7 +526,9 @@
           <t>La réglementation hongroise</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Hongrie, pays membre de l'Union européenne, depuis le 1er mai 2004, applique les règlements européens, qui ont supplanté la législation nationale.
 </t>
@@ -547,18 +561,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Seules deux langues européennes n'ont pas un mot pour nommer le vin tiré de la racine pré-indoeuropéenne *w(o)in-[1] : le basque et le hongrois. En hongrois quelque 200 mots sont d'origine turco-bulgare, notamment des mots relatifs à l'agriculture comme le mot « vin », ainsi que des mots comme « lettre (de l'alphabet) » et « écrire » relatifs à une écriture runique hongroise d'origine turque ancienne, ce qui suggère des contacts culturels importants avec les peuples turcs [2], et à travers eux avec les premiers viticulteurs du Sud-Caucase.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Seules deux langues européennes n'ont pas un mot pour nommer le vin tiré de la racine pré-indoeuropéenne *w(o)in- : le basque et le hongrois. En hongrois quelque 200 mots sont d'origine turco-bulgare, notamment des mots relatifs à l'agriculture comme le mot « vin », ainsi que des mots comme « lettre (de l'alphabet) » et « écrire » relatifs à une écriture runique hongroise d'origine turque ancienne, ce qui suggère des contacts culturels importants avec les peuples turcs , et à travers eux avec les premiers viticulteurs du Sud-Caucase.
 À titre d'exemples, on trouve :
 Szőlő : « raisin »
 Bor : « vin »
 Ászok : « tonneau »
-Áldomás : « bénédiction, libation »
-Antiquité
-La viticulture en Hongrie débute lors de la conquête de la rive sud du Danube par les Romains. Les échanges commerciaux de vin et d'autres produits, incitent les Celtes à planter de la vigne[3]. 
-Moyen Âge
-Les Magyars apportent avec eux des techniques de viticulture orientale lors de leur invasion au IXe siècle[3].
-</t>
+Áldomás : « bénédiction, libation »</t>
         </is>
       </c>
     </row>
@@ -583,10 +597,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Période moderne</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La viticulture en Hongrie débute lors de la conquête de la rive sud du Danube par les Romains. Les échanges commerciaux de vin et d'autres produits, incitent les Celtes à planter de la vigne. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,10 +634,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Période contemporaine</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Magyars apportent avec eux des techniques de viticulture orientale lors de leur invasion au IXe siècle.
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,18 +671,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Géographie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Climatologie
-La Hongrie est un pays qui subit des influences équilibrées entre le climat continental qui sévit dans les pays plus au nord et le climat méditerranéen. Le mélange donne un contraste entre des hivers froids et des étés chauds. Le pays bénéficie d'une moyenne de 2 000 heures d'ensoleillement par an[3].
-Géologie et orographie
-60 % du pays est constitué d'une plaine qui ne dépasse pas 200 mètres d'altitude. Le point culminant est le mont Galyateto (1000 mètres). Ce relief explique la grande quantité de lacs. Le plus grand est le lac Balaton. L'effet modérateur de ces lacs sur le climat explique que les vignobles en soient voisins[3].
-</t>
-        </is>
-      </c>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -669,17 +699,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Les cépages cultivés en Hongrie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Hongrie a répertorié 300 cépages sur son territoire. Dans la réalité, certains ne sont utilisés que très localement et seules 27 variétés dépassent 1 % de représentativité. Il reste environ 9 000 hectares d'hybrides interspécifiques, des variétés issues du croisement de la vigne européenne, Vitis vinifera avec des vignes américaines, Vitis labrusca, Vitis riparia, Vitis berlandieri, etc. Leur qualité inégale les élimine des vins les plus renommés mais leur résistance exceptionnelle au froid et aux maladies cryptogamiques les rend utile en zone froide et dans les 2 % d'exploitation en viticulture biologique[3].
-Le vignoble comporte 70 % de raisin de cuve (destiné à être vinifié) blanc, 28 % de raisin de cuve rouge et 2 % de raisin de table[3].
-Tableau des différents cépages cultivés en Hongrie
-</t>
-        </is>
-      </c>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -702,10 +727,121 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Hongrie est un pays qui subit des influences équilibrées entre le climat continental qui sévit dans les pays plus au nord et le climat méditerranéen. Le mélange donne un contraste entre des hivers froids et des étés chauds. Le pays bénéficie d'une moyenne de 2 000 heures d'ensoleillement par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Hongrie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Hongrie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60 % du pays est constitué d'une plaine qui ne dépasse pas 200 mètres d'altitude. Le point culminant est le mont Galyateto (1000 mètres). Ce relief explique la grande quantité de lacs. Le plus grand est le lac Balaton. L'effet modérateur de ces lacs sur le climat explique que les vignobles en soient voisins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Hongrie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Hongrie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les cépages cultivés en Hongrie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Hongrie a répertorié 300 cépages sur son territoire. Dans la réalité, certains ne sont utilisés que très localement et seules 27 variétés dépassent 1 % de représentativité. Il reste environ 9 000 hectares d'hybrides interspécifiques, des variétés issues du croisement de la vigne européenne, Vitis vinifera avec des vignes américaines, Vitis labrusca, Vitis riparia, Vitis berlandieri, etc. Leur qualité inégale les élimine des vins les plus renommés mais leur résistance exceptionnelle au froid et aux maladies cryptogamiques les rend utile en zone froide et dans les 2 % d'exploitation en viticulture biologique.
+Le vignoble comporte 70 % de raisin de cuve (destiné à être vinifié) blanc, 28 % de raisin de cuve rouge et 2 % de raisin de table.
+Tableau des différents cépages cultivés en Hongrie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Hongrie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Hongrie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Les terroirs hongrois</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Sopron (région viticole de Sopron)
 Somló (région viticole de la Grand-plaine-hongroise)
@@ -732,31 +868,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Viticulture_en_Hongrie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Hongrie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Hongrie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Hongrie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
